--- a/TUFLOWFV/site_processing/lowerlakes/Flux Plotting/Matfiles/Flux Order WQ.xlsx
+++ b/TUFLOWFV/site_processing/lowerlakes/Flux Plotting/Matfiles/Flux Order WQ.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\aed_matlab_modeltools\TUFLOWFV\site_processing\lowerlakes\Matfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\aed_matlab_modeltools\TUFLOWFV\site_processing\lowerlakes\Flux Plotting\Matfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533C5ED-B8C8-451A-ADA8-04F0D56EB70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13880"/>
+    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,33 +641,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="3"/>
+    <col min="18" max="18" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -686,7 +693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -710,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -743,7 +750,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -775,7 +782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -801,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
@@ -827,7 +834,7 @@
         <v>1000000000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -853,7 +860,7 @@
         <v>25000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,7 +887,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -907,7 +914,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -934,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -961,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -988,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>67</v>
       </c>

--- a/TUFLOWFV/site_processing/lowerlakes/Flux Plotting/Matfiles/Flux Order WQ.xlsx
+++ b/TUFLOWFV/site_processing/lowerlakes/Flux Plotting/Matfiles/Flux Order WQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\aed_matlab_modeltools\TUFLOWFV\site_processing\lowerlakes\Flux Plotting\Matfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533C5ED-B8C8-451A-ADA8-04F0D56EB70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B23CB-E62E-49DB-B8C7-349E924C4BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
